--- a/biology/Zoologie/Chouette_leptogramme/Chouette_leptogramme.xlsx
+++ b/biology/Zoologie/Chouette_leptogramme/Chouette_leptogramme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Strix leptogrammica
 La Chouette leptogramme (Strix leptogrammica) est une espèce de rapaces de la famille des Strigidae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chouette leptogramme mesure de 47 à 53 cm de la tête à la queue[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chouette leptogramme mesure de 47 à 53 cm de la tête à la queue.
 Cette chouette est strictement nocturne. Elle passe la journée cachée dans le feuillage des hautes branches d'un arbre et ne sort qu'à la nuit tombée pour chasser. Elle capture et mange des rongeurs dont des musaraignes, des chauves-souris et aussi de gros insectes et de nombreux oiseaux incluant tourterelles, martins et perdrix.
 			Adolescent.
 			Adulte.
@@ -546,7 +560,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve au sud de l'Asie depuis l'Inde et le Sri Lanka à l'est, jusqu'à l'ouest de l'Indonésie et dans le sud de la Chine.
 </t>
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette chouette vit dans les forêts tropicales de plaines, dans les forêts denses à moyenne ou haute altitude, le plus souvent à l'écart de l'homme.
 </t>
@@ -608,10 +626,12 @@
           <t>Cri</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet rapace nocturne est difficile à voir mais facile à reconnaître à son cri caractéristique. Son cri classique est une courte série vibrante de hululements profonds, commençant doucement et se terminant plus fort, hou-hou-houhouhrrror ou hou hou-hou-hou-hou.
-Elle émet aussi divers cris selon la région où elle vit : simple houh explosif répété à intervalles réguliers ; roucoulement doux ho-hou ; ou cri strident iiiaoouh[2]...
+Elle émet aussi divers cris selon la région où elle vit : simple houh explosif répété à intervalles réguliers ; roucoulement doux ho-hou ; ou cri strident iiiaoouh...
 </t>
         </is>
       </c>
@@ -640,7 +660,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Strix leptogrammica bartelsi
